--- a/Resources/ResourcesRoot/产品信息.xlsx
+++ b/Resources/ResourcesRoot/产品信息.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\爱珂勒项目\二期\导入模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF2718-6AE8-446A-89A6-FBCDBFE7E5C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="产品信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>产品信息</t>
   </si>
@@ -34,6 +28,18 @@
     <t>产品型号</t>
   </si>
   <si>
+    <t>每箱零件数</t>
+  </si>
+  <si>
+    <t>线外测试数量（1-10）</t>
+  </si>
+  <si>
+    <t>线外测试间隔（小时）</t>
+  </si>
+  <si>
+    <t>模具编号</t>
+  </si>
+  <si>
     <t>标准工时(秒)</t>
   </si>
   <si>
@@ -55,33 +61,33 @@
     <t>备注</t>
   </si>
   <si>
+    <t>系统看板大小</t>
+  </si>
+  <si>
+    <t>最大看板张数</t>
+  </si>
+  <si>
+    <t>最小看板张数</t>
+  </si>
+  <si>
+    <t>目标OEE</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>每箱零件数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模具编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线外测试数量（1-10）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线外测试间隔（小时）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -93,33 +99,362 @@
       <b/>
       <sz val="18"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -127,46 +462,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -424,50 +1036,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-    <col min="2" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="19.44140625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="39" customWidth="1"/>
+    <col min="1" max="1" width="44.4444444444444" customWidth="1"/>
+    <col min="2" max="4" width="19.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="19.4444444444444" customWidth="1"/>
+    <col min="8" max="9" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="13" width="19.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="18.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="18.7777777777778" customWidth="1"/>
+    <col min="16" max="16" width="16.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="13.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="13.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="25.5" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -478,115 +1099,127 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:14">
       <c r="K3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="11:14">
       <c r="K4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="11:14">
       <c r="K5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="11:14">
       <c r="K6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="11:14">
       <c r="K7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Resources/ResourcesRoot/产品信息.xlsx
+++ b/Resources/ResourcesRoot/产品信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21216" windowHeight="9047"/>
   </bookViews>
   <sheets>
     <sheet name="产品信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>产品信息</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>目标OEE</t>
+  </si>
+  <si>
+    <t>最小完成率</t>
   </si>
   <si>
     <t/>
@@ -81,13 +84,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -103,16 +106,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,16 +211,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,120 +243,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +265,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,85 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,79 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +456,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,15 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,207 +556,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1042,12 +1035,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1064,9 +1057,10 @@
     <col min="16" max="16" width="16.7777777777778" customWidth="1"/>
     <col min="17" max="17" width="13.7777777777778" customWidth="1"/>
     <col min="18" max="18" width="13.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1" spans="1:18">
+    <row r="1" ht="25.5" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1087,8 +1081,9 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1098,16 +1093,16 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1142,81 +1137,84 @@
       </c>
       <c r="R2" t="s">
         <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="11:14">
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="11:14">
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="11:14">
       <c r="K5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="11:14">
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="11:14">
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>

--- a/Resources/ResourcesRoot/产品信息.xlsx
+++ b/Resources/ResourcesRoot/产品信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9047"/>
+    <workbookView windowWidth="18588" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="产品信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>产品信息</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>最小完成率</t>
+  </si>
+  <si>
+    <t>不良率季度目标(ppm)</t>
+  </si>
+  <si>
+    <t>单价</t>
   </si>
   <si>
     <t/>
@@ -84,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -108,6 +114,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,7 +178,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,25 +199,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,37 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -212,45 +240,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +271,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,7 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,13 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,145 +433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +465,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +528,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,56 +552,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,148 +567,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,12 +1041,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1058,6 +1064,8 @@
     <col min="17" max="17" width="13.7777777777778" customWidth="1"/>
     <col min="18" max="18" width="13.4444444444444" customWidth="1"/>
     <col min="19" max="19" width="15.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="21.1111111111111" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:19">
@@ -1083,7 +1091,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1140,76 +1148,82 @@
       </c>
       <c r="S2" t="s">
         <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="11:14">
       <c r="K3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="11:14">
       <c r="K4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="11:14">
       <c r="K5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="11:14">
       <c r="K6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="11:14">
       <c r="K7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/ResourcesRoot/产品信息.xlsx
+++ b/Resources/ResourcesRoot/产品信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18588" windowHeight="9347"/>
+    <workbookView windowWidth="22488" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="产品信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>产品信息</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t>单价</t>
+  </si>
+  <si>
+    <t>质量损失OEE</t>
+  </si>
+  <si>
+    <t>换型损失OEE</t>
+  </si>
+  <si>
+    <t>技术损失OEE</t>
+  </si>
+  <si>
+    <t>性能损失OEE</t>
+  </si>
+  <si>
+    <t>内部缺陷PPM</t>
   </si>
   <si>
     <t/>
@@ -96,7 +111,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -112,14 +127,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,60 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,64 +239,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,181 +298,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,16 +501,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -513,40 +552,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -567,152 +588,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +742,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,12 +1065,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1066,6 +1090,11 @@
     <col min="19" max="19" width="15.7777777777778" customWidth="1"/>
     <col min="20" max="20" width="21.1111111111111" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="15.2222222222222" customWidth="1"/>
+    <col min="23" max="23" width="13.8888888888889" customWidth="1"/>
+    <col min="24" max="24" width="14.7777777777778" customWidth="1"/>
+    <col min="25" max="25" width="13.8888888888889" customWidth="1"/>
+    <col min="26" max="26" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:19">
@@ -1091,7 +1120,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1154,76 +1183,91 @@
       </c>
       <c r="U2" t="s">
         <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="11:14">
       <c r="K3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="11:14">
       <c r="K4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="11:14">
       <c r="K5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="11:14">
       <c r="K6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="11:14">
       <c r="K7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
